--- a/vectorstore/table_references/table1-page7.xlsx
+++ b/vectorstore/table_references/table1-page7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,18 +436,8 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Commute Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>What is your normal place of work and what
-can you claim for</t>
+          <t>Colleagues may wish or believe they need to attend holy days, festivals, or additional religious events. Whilst
+some of these are tied to specific times, others have services at different points during the day.</t>
         </is>
       </c>
     </row>
@@ -457,22 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>National role</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>You travel the country
-and do not have a
-defined region or area</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>You can claim for all journeys as they are not a
-usual place of work unless you visit the same
-office at least once a week, in which case this
-cannot be claimed for.</t>
+          <t>There is no legal right for colleagues to have time off to attend religious services, however it’s reasonable</t>
         </is>
       </c>
     </row>
@@ -482,24 +457,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regional/Area role</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Living OFF region
-e.g., regional support
-team, BRP RDM</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>You cannot claim for travel to the nearest
-branch on the region. You can claim for travel
-to other sites less the normal travel to the
-nearest site if not visiting your closest location.
-You can claim any mileage you complete after
-visiting your normal base.</t>
+          <t>and good practice for us to accommodate requests where possible e.g. is the request for a full day or simply</t>
         </is>
       </c>
     </row>
@@ -509,26 +467,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regional/Area role</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Living ON region
-e.g., Regional support
-team, BRP RDM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>You cannot claim for travel to your normal base
-or office if you visit it on a weekly basis. You
-can claim for other business journeys as long as
-you do not visit them at least once a week. (If
-your normal daily location is off region, you
-cannot claim for it). When you travel to other
-branches on the region you can claim for all
-travel from home.</t>
+          <t>a few hours. Approving time off will depend on the demand for time off and the needs of the business at</t>
         </is>
       </c>
     </row>
@@ -538,164 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Single Site</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Office, DC or Branch
-based.
-e.g., CDM, RDM, AM</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Cannot claim mileage as this is seen as your
-ordinary commute. If you visit a customer or a
-supplier en route this does not mean that you
-can then claim for the mileage to your normal
-place of work. You can claim the distance to a
-customer to and from the branch if you visit
-during the day.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dual or Multi site role or
-roles with two or more
-workplaces</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>You are responsible for
-two or more locations,
-or you travel to two or
-more sites at least once a
-week</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>You cannot claim for your nominated locations
-if you visit them at least once a week. If you
-visit another location (which may be one of
-your normal commute's) on the same day then
-you can claim the mileage minus the travel to
-the first site. You can claim for meetings or site
-visit to a location that you do not visit on a
-regular basis as usual.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Temporary Workplace</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>You are working at the
-location for a period of
-less than 12 months</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>If you are covering someone's role or working
-on a project etc you can claim your daily travel
-from home up to 12 months. After this time, it
-becomes a normal daily travel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Secondment/Temporary
-Workplace</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>You are on secondment
-to a location for a period
-of less than 24 months</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>If you are on secondment, you can claim your
-daily travel from home for a period that does
-not exceed 24 months. (Should you have
-completed 19 months and then be extended for
-a further 6 months, you are then unable to
-claim normal daily travel from that point in
-time, due to your secondment period now being
-beyond 24 months).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>I am dual sited (work
-regularly in two
-locations) and my
-business journey is
-shorter than my normal
-daily commute</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Being cost conscious we do not expect you to
-claim for this journey.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>I am dual sited (work
-regularly in two sites),
-and my business journey
-is longer than my normal
-commute</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>You would have to take off normal daily travel
-before claiming for the business trip.</t>
+          <t>that time.</t>
         </is>
       </c>
     </row>
